--- a/Final Web Design Ruberic.xlsx
+++ b/Final Web Design Ruberic.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brosiusj\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Student Name:     ________________________________________</t>
   </si>
@@ -111,18 +116,6 @@
     <t>Graphics seem randomly chosen, are of low quality, OR distract the reader.</t>
   </si>
   <si>
-    <t>Images (accessibility)</t>
-  </si>
-  <si>
-    <t>All images used for navigation have an ALT tag that describes the image and where it links to so people who are visually impaired can use the Web site well.</t>
-  </si>
-  <si>
-    <t>Most images used for navigation have an ALT tag that describes the image and where it links to so people who are visually impaired can use the Web site well.</t>
-  </si>
-  <si>
-    <t>The needs of visually impaired Internet users are ignored.</t>
-  </si>
-  <si>
     <t>Copyright</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
   </si>
   <si>
     <t>Borrowed materials are not properly documented OR material was borrowed without permission from a site that requires permission</t>
-  </si>
-  <si>
-    <t>Contact Information</t>
   </si>
   <si>
     <t>Every Web page contains a statement of authorship, school name, and date of publication/date last edited.</t>
@@ -221,15 +211,9 @@
     <t>Assignment is worth 90 points</t>
   </si>
   <si>
-    <t xml:space="preserve">                  /90 </t>
-  </si>
-  <si>
     <t>Font size/color/ Italicize/ Bold</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>You have commented and made notes about all features of your web page and what each thing does</t>
   </si>
   <si>
@@ -246,6 +230,36 @@
   </si>
   <si>
     <t xml:space="preserve">You inserted JavaScript </t>
+  </si>
+  <si>
+    <t>Load Time, W3 Schools validator</t>
+  </si>
+  <si>
+    <t>All pages typicially load reasonably quickly (5 seconds)/ 2 Validator Errors</t>
+  </si>
+  <si>
+    <t>Did not do it  0</t>
+  </si>
+  <si>
+    <t>Did not do it 0</t>
+  </si>
+  <si>
+    <t>No comments 0</t>
+  </si>
+  <si>
+    <t>Wow Me! 10 points/Page is loaded onto GitHub and is Live</t>
+  </si>
+  <si>
+    <t>Create 5 Web pages that connect to each other.(Examples can be about, contact, etc.)</t>
+  </si>
+  <si>
+    <t>Within the 5 web pages the web designer titled each page so the end user can understand what each page is about.</t>
+  </si>
+  <si>
+    <t>All five webpages have a consistent background color and it makes visual sense.</t>
+  </si>
+  <si>
+    <t>Through the five web pages use different font size/color/Italicize/Bold, to the end use it all makes sense and is visually pleasing.(Example you do not have to change Font size/color/Italicize/Bold on every page)</t>
   </si>
   <si>
     <r>
@@ -260,53 +274,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Minimum of 10 graphics used. ( You must site your source when using pictures from other websites</t>
+      <t xml:space="preserve"> Minimum of 10 graphics used. ( You must site your source when using pictures from other websites </t>
     </r>
-  </si>
-  <si>
-    <t>Create 6 Web pages that connect to each other.(Examples can be about, contact, etc.)</t>
-  </si>
-  <si>
-    <t>Within the six web pages the web designer titled each page so the end user can understand what each page is about.</t>
-  </si>
-  <si>
-    <t>All six webpages have a consistent background color and it makes visual sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All images, especially those that are used for navigation, have an ALT tag that describes the image </t>
-  </si>
-  <si>
-    <t>Through the six web pages use different font size/color/Italicize/Bold, to the end use it all makes sense and is visually pleasing.(Example you do not have to change Font size/color/Italicize/Bold on every page)</t>
-  </si>
-  <si>
-    <t>Load Time, W3 Schools validator</t>
-  </si>
-  <si>
-    <t>The pages typically load very quickly (3 seconds or less)/ Zero validator errors</t>
-  </si>
-  <si>
-    <t>All pages typicially load reasonably quickly (5 seconds)/ 2 Validator Errors</t>
-  </si>
-  <si>
-    <t>Did not do it  0</t>
-  </si>
-  <si>
-    <t>Did not do it 0</t>
-  </si>
-  <si>
-    <t>No comments 0</t>
-  </si>
-  <si>
-    <t>Do something you have never done before, make it unique and visual pleasing. Make me say WOW! I</t>
-  </si>
-  <si>
-    <t>Wow Me! 10 points/Page is loaded onto GitHub and is Live</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All images, especially those that are used for navigation, have an ALT tag that describes the image </t>
+    </r>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About page is a resume page with a good profile photo of yourself. All appropriate information that goes onto a resume is placed onto this page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not do it </t>
+  </si>
+  <si>
+    <t>Contact Information (footer)</t>
+  </si>
+  <si>
+    <t>Comments in CSS file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  /95 </t>
+  </si>
+  <si>
+    <t>Do something you have never done before, make it unique and visual pleasing. Make me say WOW!</t>
+  </si>
+  <si>
+    <t>The pages typically load very quickly (3 seconds or less)/ Zero validator errors(errors not fixed must be approved by instructor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,13 +793,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>3</v>
@@ -882,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -899,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
@@ -913,10 +922,10 @@
     </row>
     <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
@@ -928,12 +937,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>28</v>
@@ -947,159 +956,159 @@
     </row>
     <row r="14" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
